--- a/biology/Histoire de la zoologie et de la botanique/Niccolò_Gualtieri/Niccolò_Gualtieri.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Niccolò_Gualtieri/Niccolò_Gualtieri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Niccol%C3%B2_Gualtieri</t>
+          <t>Niccolò_Gualtieri</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Niccolò Gualtieri (né en 1688 à Florence, alors capitale du grand-duché de Toscane, et mort en 1744) est un médecin et un malacologiste italien
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Niccol%C3%B2_Gualtieri</t>
+          <t>Niccolò_Gualtieri</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Niccolò Gualtieri, médecin du grand-duc de Toscane, Cosimo III (1642-1723), amasse une vaste collection de coquillages qui servent à la publication d’Index Testarum Conchyliorum, quae adservantur in Museo Nicolai Gualtieri qui paraît en 1742. Les planches sont l’œuvre de Giuseppe Menabuoni (1708-après 1745)  et gravées par Antonio Pazzi (1706-après 1768). Il participe en outre à la fondation de la première société botanique d’Europe à Florence.
 </t>
